--- a/Summary_tables_classification_comparisons.xlsx
+++ b/Summary_tables_classification_comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster UOC bioestadística y bioinformática\TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857DB8E-BDD4-4C54-8F7D-E2A2AE10D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8111B32-75ED-4B3E-9DFC-245A12FF558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -281,9 +281,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,6 +316,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B84" activeCellId="8" sqref="B12 B21 B30 B39 B48 B57 B66 B75 B84"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +740,7 @@
       <c r="E3" s="2">
         <v>2.0290120000000002E-3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>8.6429925000000005E-2</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -750,7 +769,7 @@
       <c r="E4" s="4">
         <v>4.7190480000000002E-8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>6.048738E-2</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -767,31 +786,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>8.9645200000000003E-11</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>8.1553070000000005E-2</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>0.11</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -808,7 +827,7 @@
       <c r="E6" s="4">
         <v>1.4525359999999999E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>5.3394959999999998E-2</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -837,7 +856,7 @@
       <c r="E7" s="4">
         <v>1.041551E-4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>5.3149780000000001E-2</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -854,31 +873,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>2.227536E-4</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>6.0126659999999998E-2</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -929,7 +948,7 @@
       <c r="E12" s="2">
         <v>4.866151E-3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>6.4151014000000006E-2</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -958,7 +977,7 @@
       <c r="E13" s="4">
         <v>5.8299999999999997E-7</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>5.121237E-2</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -975,31 +994,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1.19E-9</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>5.9054266000000001E-2</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>0.1</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1013,10 +1032,10 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>5.8527515000000002E-2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>4.1086563999999999E-2</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1045,7 +1064,7 @@
       <c r="E16" s="4">
         <v>1.1416320000000001E-3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>4.3938557000000003E-2</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1062,31 +1081,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>1.089928E-3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>5.3117350000000001E-2</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="18">
         <v>0.27</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="20" t="s">
+      <c r="I17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1137,7 +1156,7 @@
       <c r="E21" s="2">
         <v>1.4786641999999999E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>6.1258396E-2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -1166,7 +1185,7 @@
       <c r="E22" s="4">
         <v>6.37E-6</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>4.1024972E-2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -1183,31 +1202,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>2.6499999999999999E-8</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>6.2317457999999999E-2</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>0.08</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1221,10 +1240,10 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0.21319548199999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>3.3271283999999998E-2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -1253,7 +1272,7 @@
       <c r="E25" s="4">
         <v>5.6635019999999999E-3</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>3.3345834999999997E-2</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1270,31 +1289,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>5.2972699999999998E-3</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>4.9907051000000001E-2</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="G26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="18">
         <v>0.24</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="20" t="s">
+      <c r="I26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1345,7 +1364,7 @@
       <c r="E30" s="2">
         <v>1.5231680000000001E-3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>8.3097910999999997E-2</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -1374,7 +1393,7 @@
       <c r="E31" s="4">
         <v>2.8499999999999998E-6</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>6.4536731E-2</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -1391,31 +1410,31 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>4.9E-9</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>7.2488766999999996E-2</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <v>0.09</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1432,7 +1451,7 @@
       <c r="E33" s="4">
         <v>3.9345881999999999E-2</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>5.7453079999999997E-2</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -1461,7 +1480,7 @@
       <c r="E34" s="4">
         <v>1.025979E-3</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>5.4045072E-2</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -1478,31 +1497,31 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>6.0419100000000002E-4</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="16">
         <v>6.1328334999999998E-2</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="19">
+      <c r="G35" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1553,7 +1572,7 @@
       <c r="E39" s="2">
         <v>6.3135299999999997E-4</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>7.5010434000000001E-2</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -1582,7 +1601,7 @@
       <c r="E40" s="4">
         <v>1.45E-5</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>5.6465284999999997E-2</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -1599,31 +1618,31 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>2.53E-7</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>6.3053746999999993E-2</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="20" t="s">
+      <c r="I41" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1637,10 +1656,10 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>5.7531066999999998E-2</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>4.6409983000000002E-2</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -1669,7 +1688,7 @@
       <c r="E43" s="4">
         <v>2.1775589999999999E-3</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>4.5888903000000002E-2</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -1686,31 +1705,31 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>8.75667E-4</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>5.2023502999999999E-2</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="19">
+      <c r="G44" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="18">
         <v>0.27</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="20" t="s">
+      <c r="I44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1761,7 +1780,7 @@
       <c r="E48" s="2">
         <v>6.28E-6</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>8.7962569000000004E-2</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -1790,7 +1809,7 @@
       <c r="E49" s="4">
         <v>4.9100000000000001E-5</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>7.2538952000000004E-2</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -1807,31 +1826,31 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>1.4600000000000001E-7</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>8.2535943000000001E-2</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="18">
         <v>0.19</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1848,7 +1867,7 @@
       <c r="E51" s="4">
         <v>1.0362009E-2</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>6.8048267999999995E-2</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -1877,7 +1896,7 @@
       <c r="E52" s="4">
         <v>1.7844200000000001E-4</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>5.9684271999999997E-2</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -1894,31 +1913,31 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="15">
         <v>2.73553E-4</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>7.6386172000000002E-2</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="19">
+      <c r="G53" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="18">
         <v>0.62</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1966,10 +1985,10 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>0.124860765</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>4.5897321999999997E-2</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -1998,7 +2017,7 @@
       <c r="E58" s="4">
         <v>3.3119999999999998E-3</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>3.4329270000000002E-2</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -2015,31 +2034,31 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>3.0700000000000001E-5</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>4.5264470000000001E-2</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="18">
         <v>0.13</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2053,10 +2072,10 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>0.84712649699999998</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>2.9738232999999999E-2</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -2082,10 +2101,10 @@
       <c r="D61" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="12">
         <v>0.10766616699999999</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>3.3831037000000001E-2</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -2111,10 +2130,10 @@
       <c r="D62" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <v>0.153265812</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>3.4974112000000002E-2</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -2177,13 +2196,13 @@
       <c r="E66" s="2">
         <v>1.7296239725965199E-5</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>7.5037601608920604E-2</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>0.06</v>
       </c>
       <c r="I66" s="6" t="s">
@@ -2206,13 +2225,13 @@
       <c r="E67" s="2">
         <v>3.50117796780391E-7</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>5.31101450728656E-2</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I67" s="6" t="s">
@@ -2223,31 +2242,31 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="20">
         <v>2.1644391795498401E-9</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="21">
         <v>7.1118305265012297E-2</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="22">
         <v>0.09</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="6" t="s">
+      <c r="I68" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2264,7 +2283,7 @@
       <c r="E69" s="4">
         <v>5.6417399999999997E-4</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>4.5796554000000003E-2</v>
       </c>
       <c r="G69" s="6" t="s">
@@ -2281,66 +2300,66 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="24">
         <v>3.58E-6</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="25">
         <v>4.4990185000000002E-2</v>
       </c>
-      <c r="G70" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="19">
+      <c r="G70" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="27">
         <v>0.32</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="15">
         <v>4.7200000000000002E-5</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>5.6792660000000002E-2</v>
       </c>
-      <c r="G71" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="19">
+      <c r="G71" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="18">
         <v>0.34</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E72" s="4"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="11"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2390,7 +2409,7 @@
       <c r="E75" s="2">
         <v>1.1379579999999999E-3</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>6.7991234999999997E-2</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -2419,7 +2438,7 @@
       <c r="E76" s="4">
         <v>3.7985599999999998E-4</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>4.1109567E-2</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -2436,31 +2455,31 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="15">
         <v>2.53E-7</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <v>5.1158363999999998E-2</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="18">
         <v>0.18</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J77" s="20" t="s">
+      <c r="J77" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2474,10 +2493,10 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="12">
         <v>5.7202296E-2</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>3.6650769999999999E-2</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -2506,7 +2525,7 @@
       <c r="E79" s="4">
         <v>1.7896839999999999E-3</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>4.0238019E-2</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -2523,31 +2542,31 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="15">
         <v>8.6289600000000004E-4</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <v>4.4878208000000003E-2</v>
       </c>
-      <c r="G80" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="19">
+      <c r="G80" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="18">
         <v>0.27</v>
       </c>
-      <c r="I80" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="20" t="s">
+      <c r="I80" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2598,7 +2617,7 @@
       <c r="E84" s="2">
         <v>6.3E-5</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>7.3818589000000004E-2</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -2627,7 +2646,7 @@
       <c r="E85" s="4">
         <v>1.17E-7</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>5.7549147000000002E-2</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -2644,31 +2663,31 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="15">
         <v>1.49E-10</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <v>6.8185982000000006E-2</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="G86" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="18">
         <v>0.25</v>
       </c>
-      <c r="I86" s="20" t="s">
+      <c r="I86" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J86" s="20" t="s">
+      <c r="J86" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2685,7 +2704,7 @@
       <c r="E87" s="4">
         <v>6.7349979999999999E-3</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>5.1214043000000001E-2</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -2714,7 +2733,7 @@
       <c r="E88" s="4">
         <v>4.4799999999999998E-5</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>5.2013837E-2</v>
       </c>
       <c r="G88" s="6" t="s">
@@ -2731,31 +2750,31 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="15" t="s">
+      <c r="C89" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="15">
         <v>5.1799999999999999E-5</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <v>5.7835156999999998E-2</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="19">
+      <c r="G89" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="18">
         <v>0.32</v>
       </c>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="19" t="s">
         <v>34</v>
       </c>
     </row>
